--- a/bots/crawl_ch/output/bread_coop_2023-01-05.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-05.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E47" t="n">
         <v>4.5</v>
@@ -3776,7 +3776,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" t="n">
         <v>4.5</v>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4012,10 +4012,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5095,10 +5095,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E114" t="n">
         <v>4.5</v>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E130" t="n">
         <v>4.5</v>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10202,7 +10202,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11115,7 +11115,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11330,7 +11330,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11399,7 +11399,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12470,7 +12470,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12750,7 +12750,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12888,7 +12888,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13882,7 +13882,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14811,7 +14811,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15237,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15659,7 +15659,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16296,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17499,7 +17499,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17568,7 +17568,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17779,7 +17779,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17988,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18057,7 +18057,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18126,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18761,7 +18761,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18830,7 +18830,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18972,7 +18972,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19325,7 +19325,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19394,7 +19394,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19463,7 +19463,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19605,7 +19605,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19678,7 +19678,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19751,7 +19751,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19824,7 +19824,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20102,7 +20102,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20169,7 +20169,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20238,7 +20238,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20449,7 +20449,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21808,7 +21808,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22088,7 +22088,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24324,7 +24324,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24535,7 +24535,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24947,7 +24947,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25708,7 +25708,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25919,7 +25919,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26272,7 +26272,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26341,7 +26341,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26414,7 +26414,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26765,7 +26765,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26838,7 +26838,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27051,7 +27051,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27124,7 +27124,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27191,7 +27191,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27264,7 +27264,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27327,7 +27327,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
@@ -27337,7 +27337,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27406,7 +27406,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27479,7 +27479,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27546,7 +27546,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27609,7 +27609,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -27619,7 +27619,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27753,7 +27753,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -27763,7 +27763,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27832,7 +27832,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27901,7 +27901,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27968,7 +27968,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28035,7 +28035,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28104,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28307,7 +28307,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28512,7 +28512,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28581,7 +28581,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28650,7 +28650,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-05 06:49:19</t>
+          <t>2023-01-05 12:56:40</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2023-01-05.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-05.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
         <v>4.5</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" t="n">
         <v>4.5</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2707,13 +2707,13 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Roland Zwieback Classic 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+          <t>Roland Zwieback Classic 20% ab 2 Stück Aktion 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3770,13 +3770,13 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Ölz Premium Buttertoast 2x  500g - Online kein Bestand 50% Aktion 3.80 Schweizer Franken statt 7.60 Schweizer Franken</t>
+          <t>Ölz Premium Buttertoast 2x  500g 50% Aktion 3.80 Schweizer Franken statt 7.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7297,7 +7297,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
         <v>4.5</v>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10202,7 +10202,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11115,7 +11115,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11330,7 +11330,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11399,7 +11399,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12470,7 +12470,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12539,7 +12539,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12750,7 +12750,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12888,7 +12888,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13882,7 +13882,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14162,7 +14162,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14811,7 +14811,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15237,7 +15237,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E214" t="n">
         <v>4.5</v>
@@ -15659,7 +15659,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16296,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17499,7 +17499,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17568,7 +17568,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17779,7 +17779,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17988,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18057,7 +18057,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18126,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18761,7 +18761,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18830,7 +18830,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -18972,7 +18972,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E266" t="n">
         <v>4.5</v>
@@ -19325,7 +19325,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19394,7 +19394,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19463,7 +19463,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19605,7 +19605,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19678,7 +19678,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19751,7 +19751,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19824,7 +19824,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20102,7 +20102,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20169,7 +20169,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20238,7 +20238,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20307,7 +20307,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20449,7 +20449,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20518,7 +20518,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21808,7 +21808,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22088,7 +22088,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23689,13 +23689,13 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 4x60g 25% Aktion 3.05 Schweizer Franken statt 4.10 Schweizer Franken</t>
+          <t>Naturaplan Bio Haselnussrollen 4x60g 3 + 1 Aktion 3.05 Schweizer Franken statt 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24255,7 +24255,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24318,13 +24318,13 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.30 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24535,7 +24535,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24604,7 +24604,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -24947,7 +24947,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25708,7 +25708,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25775,7 +25775,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25919,7 +25919,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26272,7 +26272,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26341,7 +26341,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26414,7 +26414,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26765,7 +26765,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26838,7 +26838,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27051,7 +27051,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27124,7 +27124,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27191,7 +27191,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27264,7 +27264,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27337,7 +27337,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27406,7 +27406,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27479,7 +27479,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27546,7 +27546,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27619,7 +27619,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27690,7 +27690,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27763,7 +27763,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27832,7 +27832,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27901,7 +27901,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -27968,7 +27968,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28035,7 +28035,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28104,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28307,7 +28307,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28512,7 +28512,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28581,7 +28581,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
@@ -28650,7 +28650,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-05 12:56:40</t>
+          <t>2023-01-05 20:49:40</t>
         </is>
       </c>
     </row>
